--- a/task.xlsx
+++ b/task.xlsx
@@ -19,13 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="691">
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>任务</t>
@@ -1528,6 +1529,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>怪物数</t>
@@ -1546,6 +1548,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>格子</t>
@@ -1564,6 +1567,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>格子</t>
@@ -1634,6 +1638,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>地图</t>
@@ -1652,6 +1657,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>格子</t>
@@ -1670,6 +1676,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>格子</t>
@@ -1714,6 +1721,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>可不填</t>
@@ -1740,6 +1748,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>剧情</t>
@@ -2323,7 +2332,35 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>int[2]</t>
+    <t>int[2][2]</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数组</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>list1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[2]</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;2&gt;</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段1</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2348,6 +2385,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2359,6 +2397,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2370,17 +2409,20 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2388,6 +2430,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -13882,13 +13925,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
+      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13896,10 +13939,10 @@
     <col min="1" max="1" width="13.25" style="13" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="13" customWidth="1"/>
     <col min="3" max="3" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="22" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -13939,8 +13982,35 @@
       <c r="M1" s="20" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>671</v>
       </c>
@@ -13976,8 +14046,27 @@
       </c>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -14017,8 +14106,35 @@
       <c r="M3" s="15" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -14058,8 +14174,35 @@
       <c r="M4" s="15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -14096,6 +14239,27 @@
       </c>
       <c r="M5" s="19">
         <v>2222</v>
+      </c>
+      <c r="N5" s="19">
+        <v>333</v>
+      </c>
+      <c r="O5" s="19">
+        <v>444</v>
+      </c>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19">
+        <v>1</v>
+      </c>
+      <c r="S5" s="19">
+        <v>2</v>
+      </c>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19">
+        <v>1</v>
+      </c>
+      <c r="V5" s="19">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/task.xlsx
+++ b/task.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="697">
   <si>
     <r>
       <rPr>
@@ -2328,39 +2328,63 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>int[2][2]</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数组</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>list1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[2]</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;2&gt;</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>list</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>int[2][2]</t>
+    <t>list[1]</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>字典数组</t>
+    <t>int[2]</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>list1</t>
+    <t>c</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>dict[2]</t>
+    <t>数组1</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>dict&lt;2&gt;</t>
+    <t>数组2</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段1</t>
+    <t>list[0]</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -13925,13 +13949,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13939,10 +13963,14 @@
     <col min="1" max="1" width="13.25" style="13" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="13" customWidth="1"/>
     <col min="3" max="3" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="1" customWidth="1"/>
+    <col min="16" max="24" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -13977,40 +14005,46 @@
         <v>681</v>
       </c>
       <c r="L1" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="M1" s="20" t="s">
         <v>667</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>668</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="P1" s="20" t="s">
         <v>667</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>668</v>
       </c>
-      <c r="P1" s="20" t="s">
-        <v>684</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>690</v>
-      </c>
       <c r="R1" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="T1" s="20" t="s">
         <v>668</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>667</v>
       </c>
-      <c r="T1" s="20" t="s">
-        <v>690</v>
-      </c>
-      <c r="U1" s="20" t="s">
+      <c r="V1" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="W1" s="20" t="s">
         <v>668</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="X1" s="20" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>671</v>
       </c>
@@ -14042,31 +14076,37 @@
         <v>679</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>682</v>
-      </c>
-      <c r="L2" s="15"/>
+        <v>690</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>696</v>
+      </c>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15" t="s">
-        <v>685</v>
-      </c>
+      <c r="O2" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
       <c r="R2" s="15" t="s">
-        <v>688</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="T2" s="15"/>
+        <v>684</v>
+      </c>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15" t="s">
+        <v>687</v>
+      </c>
       <c r="U2" s="15" t="s">
         <v>688</v>
       </c>
-      <c r="V2" s="15" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V2" s="15"/>
+      <c r="W2" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -14098,10 +14138,10 @@
         <v>669</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>669</v>
+        <v>692</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>669</v>
@@ -14110,31 +14150,37 @@
         <v>669</v>
       </c>
       <c r="O3" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="P3" s="15" t="s">
         <v>669</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="Q3" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="S3" s="15" t="s">
         <v>686</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>687</v>
-      </c>
-      <c r="R3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>669</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>669</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>687</v>
       </c>
       <c r="U3" s="15" t="s">
         <v>669</v>
       </c>
       <c r="V3" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X3" s="15" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -14169,7 +14215,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>5</v>
+        <v>693</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>5</v>
@@ -14178,7 +14224,7 @@
         <v>5</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>5</v>
+        <v>693</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>5</v>
@@ -14201,8 +14247,14 @@
       <c r="V4" s="15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -14234,31 +14286,33 @@
         <v>3.14</v>
       </c>
       <c r="K5" s="19"/>
-      <c r="L5" s="19">
+      <c r="L5" s="19"/>
+      <c r="M5" s="19">
         <v>1111</v>
       </c>
-      <c r="M5" s="19">
+      <c r="N5" s="19">
         <v>2222</v>
       </c>
-      <c r="N5" s="19">
+      <c r="O5" s="19"/>
+      <c r="P5" s="19">
         <v>333</v>
       </c>
-      <c r="O5" s="19">
+      <c r="Q5" s="19">
         <v>444</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19">
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19">
         <v>1</v>
       </c>
-      <c r="S5" s="19">
+      <c r="U5" s="19">
         <v>2</v>
       </c>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19">
+      <c r="V5" s="19"/>
+      <c r="W5" s="19">
         <v>1</v>
       </c>
-      <c r="V5" s="19">
+      <c r="X5" s="19">
         <v>2</v>
       </c>
     </row>

--- a/task.xlsx
+++ b/task.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="697">
   <si>
     <r>
       <rPr>
@@ -13949,13 +13949,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14313,6 +14313,68 @@
         <v>1</v>
       </c>
       <c r="X5" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>2</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
+        <v>3.14</v>
+      </c>
+      <c r="E6" s="19">
+        <v>3.14</v>
+      </c>
+      <c r="F6" s="19">
+        <v>3.14</v>
+      </c>
+      <c r="G6" s="19">
+        <v>3.14</v>
+      </c>
+      <c r="H6" s="19">
+        <v>3.14</v>
+      </c>
+      <c r="I6" s="19">
+        <v>3.14</v>
+      </c>
+      <c r="J6" s="19">
+        <v>3.14</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19">
+        <v>1111</v>
+      </c>
+      <c r="N6" s="19">
+        <v>2222</v>
+      </c>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19">
+        <v>333</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>444</v>
+      </c>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19">
+        <v>1</v>
+      </c>
+      <c r="U6" s="19">
+        <v>2</v>
+      </c>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19">
+        <v>1</v>
+      </c>
+      <c r="X6" s="19">
         <v>2</v>
       </c>
     </row>
